--- a/Error-codes.xlsx
+++ b/Error-codes.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ONDC\LGV\ONDC-LGP-Specifications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4181DA-5A88-4E30-B308-D49DDAA113F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4488A7EB-F021-46F9-B8E7-0125104D5AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="B2B Logistics" sheetId="1" r:id="rId1"/>
-    <sheet name="Services" sheetId="2" r:id="rId2"/>
+    <sheet name="Error Codes" sheetId="1" r:id="rId1"/>
+    <sheet name="Cancellation" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="109">
   <si>
     <t>Code</t>
   </si>
@@ -50,36 +50,9 @@
     <t>/on_init</t>
   </si>
   <si>
-    <t>90001</t>
-  </si>
-  <si>
-    <t>Schedule selected by the buyer is not available</t>
-  </si>
-  <si>
-    <t>/on_select</t>
-  </si>
-  <si>
-    <t>90002</t>
-  </si>
-  <si>
-    <t>Incorrect OTP provided by buyer</t>
-  </si>
-  <si>
-    <t>/on_status</t>
-  </si>
-  <si>
-    <t>90003</t>
-  </si>
-  <si>
-    <t>Schedule is not provided by the buyer</t>
-  </si>
-  <si>
     <t>Used in NACK</t>
   </si>
   <si>
-    <t>NACK on /select</t>
-  </si>
-  <si>
     <t>Location Serviceability Error - Pickup location not serviceable by Logistics Provider</t>
   </si>
   <si>
@@ -171,15 +144,227 @@
   </si>
   <si>
     <t>Quote unavailable - Quote no longer available</t>
+  </si>
+  <si>
+    <t>Triggers RTO?</t>
+  </si>
+  <si>
+    <t>Cause of cancellation &amp; hence cost attributed to?</t>
+  </si>
+  <si>
+    <t>Applicable for part cancel?</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Price of one or more items have changed due to which buyer was asked to make additional payment</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Buyer NP (BNP)</t>
+  </si>
+  <si>
+    <t>Seller NP (SNP)</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>One or more items in the Order not available</t>
+  </si>
+  <si>
+    <t>SNP</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Product available at lower than order price</t>
+  </si>
+  <si>
+    <t>BNP</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Merchant rejected the order</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Order / fulfillment not received as per buyer app TAT SLA</t>
+  </si>
+  <si>
+    <t>SNP / LSP</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Logistics Buyer NP (LBNP)</t>
+  </si>
+  <si>
+    <t>LSP</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>Order / fulfillment not ready for pickup</t>
+  </si>
+  <si>
+    <t>Logistics Service Provider (LSP)</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Wrong product delivered</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Buyer wants to modify address / other order details</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Buyer not found or cannot be contacted</t>
+  </si>
+  <si>
+    <t>LSP / SNP (for self-fulfillment)</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>Buyer does not want product any more</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Buyer refused to accept delivery</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>Address not found</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Buyer not available at location</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>Accident / rain / strike / vehicle issues</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Order delivery delayed or not possible</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>Delivery pin code not serviceable</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Pickup pin code not serviceable</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>Order lost in transit</t>
+  </si>
+  <si>
+    <t>LSP / SNP</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Packed order not complete</t>
+  </si>
+  <si>
+    <t>For open-box orders, the logistics rider can use this if there is a mismatch between the items inside the box &amp; the items in the invoice</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>Payment Failed or TTL expires</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>999</t>
+  </si>
+  <si>
+    <t>Order confirmation failure</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Internal error codes not to be used in /cancel or /on_cancel, with the following exception:
+1. LBNP cancelling logistics order in draft stage, i.e. without RTS (ready-to-ship) acceptance by LSP;</t>
+  </si>
+  <si>
+    <t>998</t>
+  </si>
+  <si>
+    <t>997</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>Order confirmation / completion failure</t>
+  </si>
+  <si>
+    <t>LBNP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -189,6 +374,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,24 +382,74 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF3B4151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3B4151"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF980000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -230,7 +466,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -266,37 +502,121 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{BBFC1AA2-6147-4463-98D9-523EE243EF13}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{3156F4B9-5828-4D72-810A-748B4DD37D6B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -635,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -680,7 +1000,7 @@
         <v>60001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -695,7 +1015,7 @@
         <v>60002</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
@@ -710,7 +1030,7 @@
         <v>60004</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -725,13 +1045,13 @@
         <v>60005</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -740,13 +1060,13 @@
         <v>60006</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -755,7 +1075,7 @@
         <v>60007</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -768,7 +1088,7 @@
         <v>60008</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
@@ -781,7 +1101,7 @@
         <v>60009</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>6</v>
@@ -794,7 +1114,7 @@
         <v>60010</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>6</v>
@@ -807,7 +1127,7 @@
         <v>60011</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>6</v>
@@ -820,7 +1140,7 @@
         <v>60012</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>6</v>
@@ -833,7 +1153,7 @@
         <v>61001</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>6</v>
@@ -846,10 +1166,10 @@
         <v>62501</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -859,10 +1179,10 @@
         <v>62502</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -872,10 +1192,10 @@
         <v>62503</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -884,10 +1204,10 @@
         <v>62504</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -896,10 +1216,10 @@
         <v>62505</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -908,10 +1228,10 @@
         <v>62506</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D20" s="1"/>
     </row>
@@ -920,10 +1240,10 @@
         <v>62507</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -932,10 +1252,10 @@
         <v>62508</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D22" s="1"/>
     </row>
@@ -944,10 +1264,10 @@
         <v>62509</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -956,10 +1276,10 @@
         <v>62510</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -968,10 +1288,10 @@
         <v>62511</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1"/>
     </row>
@@ -980,10 +1300,10 @@
         <v>63001</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -992,10 +1312,10 @@
         <v>63002</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -1004,10 +1324,10 @@
         <v>64001</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -1016,7 +1336,7 @@
         <v>65001</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>6</v>
@@ -1028,7 +1348,7 @@
         <v>65002</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>6</v>
@@ -1040,7 +1360,7 @@
         <v>65003</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>6</v>
@@ -1052,7 +1372,7 @@
         <v>65004</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>6</v>
@@ -1064,7 +1384,7 @@
         <v>66001</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>6</v>
@@ -1076,7 +1396,7 @@
         <v>66002</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>6</v>
@@ -1088,7 +1408,7 @@
         <v>66003</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>6</v>
@@ -1100,7 +1420,7 @@
         <v>66004</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>6</v>
@@ -1112,7 +1432,7 @@
         <v>66005</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>6</v>
@@ -1125,85 +1445,598 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109FBB13-EAFA-4037-9A38-2A2E1DF38C31}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.4140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="12.4140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="12"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="16"/>
+    </row>
+    <row r="21" spans="1:7" s="19" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="16"/>
+    </row>
+    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="23"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G24:G27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:E4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>